--- a/biology/Botanique/Diplazium/Diplazium.xlsx
+++ b/biology/Botanique/Diplazium/Diplazium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplazium est un genre de fougères de la famille des Athyriaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 septembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 septembre 2014) :
 Diplazium flavoviride
-Selon GRIN            (9 septembre 2014)[3] :
+Selon GRIN            (9 septembre 2014) :
 Diplazium arnottii Brack.
 Diplazium cristatum (Desr.) Alston
 Diplazium esculentum (Retz.) Sw.
@@ -526,7 +540,7 @@
 Diplazium molokaiense B. L. Rob.
 Diplazium polypodioides Blume
 Diplazium proliferum (Lam.) Thouars
-Selon ITIS      (9 septembre 2014)[4] :
+Selon ITIS      (9 septembre 2014) :
 Diplazium arnottii Brack.
 Diplazium centripetale (Baker) Maxon
 Diplazium cristatum (Desr.) Alston
@@ -572,9 +586,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (9 septembre 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (9 septembre 2014) :
 Diplazium acanthopus
 Diplazium accedens
 Diplazium alatum
@@ -680,7 +696,7 @@
 variété Diplazium wichurae var. amabile
 variété Diplazium wichurae var. wichurae
 Diplazium yaoshanense
-Selon The Plant List            (9 septembre 2014)[6] :
+Selon The Plant List            (9 septembre 2014) :
 Diplazium aberrans Maxon &amp; C.V. Morton
 Diplazium agyokuense Tagawa
 Diplazium alienum (Mett.) Hieron.
@@ -892,7 +908,7 @@
 Diplazium zakamenense (Tardieu) Rakotondr.
 Diplazium zanzibaricum (Baker) C. Chr.
 Diplazium zeylanicum (Hook.) T. Moore
-Selon Tropicos                                           (9 septembre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 septembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Diplazium aberrans Maxon &amp; C.V. Morton
 Diplazium aboreum (Willd.) C. Presl
 Diplazium accedens Blume
